--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -1881,8 +1881,8 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="121">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -350,7 +350,10 @@
     <t>DI[0]</t>
   </si>
   <si>
-    <t>en</t>
+    <t>port(p)</t>
+  </si>
+  <si>
+    <t>en(e)</t>
   </si>
   <si>
     <t>0：无效
@@ -394,7 +397,10 @@
     <t>DO[0]</t>
   </si>
   <si>
-    <t>接入的信号
+    <t>ctrl(c)</t>
+  </si>
+  <si>
+    <t>控制的外设
 0：排气风扇
 1：散热风扇
 2：加热器控制
@@ -1881,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2532,7 +2538,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -2551,13 +2557,13 @@
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" ht="94.5" spans="1:10">
@@ -2565,7 +2571,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
@@ -2573,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:10">
@@ -2581,7 +2587,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="26" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="12"/>
@@ -2589,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2597,7 +2603,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
@@ -2605,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2613,7 +2619,7 @@
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
@@ -2621,13 +2627,13 @@
         <v>16</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="21"/>
       <c r="B37" s="8" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2642,7 +2648,7 @@
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
@@ -2657,7 +2663,7 @@
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="10" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
@@ -2673,13 +2679,13 @@
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="4"/>
       <c r="H40" s="9" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="41" ht="81" spans="1:10">
@@ -2687,7 +2693,7 @@
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
@@ -2695,7 +2701,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:10">
@@ -2703,7 +2709,7 @@
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12"/>
@@ -2711,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -2855,10 +2861,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -2886,7 +2892,7 @@
     <row r="4" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2898,7 +2904,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" ht="121.5" spans="1:10">
@@ -2916,13 +2922,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -2934,14 +2940,14 @@
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2952,14 +2958,14 @@
         <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
@@ -2976,7 +2982,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -2993,7 +2999,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
@@ -3002,7 +3008,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3011,7 +3017,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -3020,7 +3026,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3029,7 +3035,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -3038,7 +3044,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3047,7 +3053,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -3056,13 +3062,13 @@
         <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3074,14 +3080,14 @@
         <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3092,17 +3098,17 @@
         <v>16</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3119,7 +3125,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -3128,7 +3134,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3137,7 +3143,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3146,7 +3152,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:10">
@@ -3155,7 +3161,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -3164,7 +3170,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" ht="270" spans="1:10">
@@ -3173,7 +3179,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3182,7 +3188,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3191,7 +3197,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
@@ -3200,7 +3206,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3209,7 +3215,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3218,7 +3224,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3227,7 +3233,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3236,7 +3242,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3245,7 +3251,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3261,7 +3267,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3270,7 +3276,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3279,7 +3285,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3288,7 +3294,7 @@
         <v>16</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" ht="135" spans="1:10">
@@ -3297,7 +3303,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3306,7 +3312,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3316,7 +3322,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3324,7 +3330,7 @@
         <v>16</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3334,7 +3340,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3351,7 +3357,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
@@ -3367,13 +3373,13 @@
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3384,7 +3390,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
@@ -3401,13 +3407,13 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3448,7 +3454,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3739,7 +3745,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3771,10 +3777,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -3802,7 +3808,7 @@
     <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3814,7 +3820,7 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="121.5" spans="1:10">
@@ -3832,13 +3838,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3850,14 +3856,14 @@
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3868,17 +3874,17 @@
         <v>16</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3895,7 +3901,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
@@ -3904,7 +3910,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
@@ -3913,7 +3919,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3922,7 +3928,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="67.5" spans="1:10">
@@ -3931,7 +3937,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -3940,7 +3946,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="270" spans="1:10">
@@ -3949,7 +3955,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3958,7 +3964,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3967,7 +3973,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3976,7 +3982,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3985,7 +3991,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3994,7 +4000,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -4003,7 +4009,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4012,7 +4018,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
@@ -4021,7 +4027,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4037,7 +4043,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4046,7 +4052,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
@@ -4055,7 +4061,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
@@ -4064,7 +4070,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="135" spans="1:12">
@@ -4073,7 +4079,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4082,7 +4088,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
@@ -4092,7 +4098,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4100,7 +4106,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
@@ -4110,7 +4116,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4127,7 +4133,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
@@ -4143,13 +4149,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
@@ -4160,7 +4166,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
@@ -4177,18 +4183,18 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="17" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -240,7 +240,7 @@
     <t>modbus[0]</t>
   </si>
   <si>
-    <t>port</t>
+    <t>port(p)</t>
   </si>
   <si>
     <t>number</t>
@@ -249,25 +249,25 @@
     <t>端口,从1开始</t>
   </si>
   <si>
-    <t>baud</t>
+    <t>baud(b)</t>
   </si>
   <si>
     <t>波特率</t>
   </si>
   <si>
-    <t>date_bit</t>
+    <t>date_bit(db)</t>
   </si>
   <si>
     <t>数据位长度</t>
   </si>
   <si>
-    <t>stop_bit</t>
+    <t>stop_bit(sb)</t>
   </si>
   <si>
     <t>停止位长度</t>
   </si>
   <si>
-    <t>parity</t>
+    <t>parity(pa)</t>
   </si>
   <si>
     <t>奇偶校验
@@ -276,19 +276,19 @@
 2：偶校验</t>
   </si>
   <si>
-    <t>device_num</t>
+    <t>device_num(dn)</t>
   </si>
   <si>
     <t>接入的设备数量</t>
   </si>
   <si>
-    <t>device_attr</t>
+    <t>device_attr(da)</t>
   </si>
   <si>
     <t>device_attr[0]</t>
   </si>
   <si>
-    <t>device_type</t>
+    <t>device_type(dt)</t>
   </si>
   <si>
     <t>接入的设备
@@ -302,13 +302,13 @@
 7：除湿器</t>
   </si>
   <si>
-    <t>device_no</t>
+    <t>device_no(dn)</t>
   </si>
   <si>
     <t>设备号</t>
   </si>
   <si>
-    <t>device_addr</t>
+    <t>device_addr(da)</t>
   </si>
   <si>
     <t>设备从机地址</t>
@@ -323,19 +323,19 @@
     <t>端口，从1开始</t>
   </si>
   <si>
-    <t>master_addr</t>
+    <t>master_addr(ma)</t>
   </si>
   <si>
     <t>ECU地址</t>
   </si>
   <si>
-    <t>slave_addr</t>
+    <t>slave_addr(sa)</t>
   </si>
   <si>
     <t>设备地址</t>
   </si>
   <si>
-    <t>addr_format</t>
+    <t>addr_format(af)</t>
   </si>
   <si>
     <t>地址偏移方式：
@@ -348,9 +348,6 @@
   </si>
   <si>
     <t>DI[0]</t>
-  </si>
-  <si>
-    <t>port(p)</t>
   </si>
   <si>
     <t>en(e)</t>
@@ -419,6 +416,9 @@
   <si>
     <t>0：modbus协议
 1：CAN协议</t>
+  </si>
+  <si>
+    <t>device_type</t>
   </si>
   <si>
     <t>设备
@@ -1887,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1898,7 +1898,7 @@
     <col min="3" max="3" width="10.5929203539823" customWidth="1"/>
     <col min="4" max="4" width="19.5221238938053" customWidth="1"/>
     <col min="5" max="5" width="16.1946902654867" customWidth="1"/>
-    <col min="6" max="6" width="12.7964601769912" customWidth="1"/>
+    <col min="6" max="6" width="17.3274336283186" customWidth="1"/>
     <col min="7" max="7" width="7.53097345132743" customWidth="1"/>
     <col min="8" max="8" width="22.8318584070796" customWidth="1"/>
     <col min="9" max="16383" width="15.8230088495575" customWidth="1"/>
@@ -2538,7 +2538,7 @@
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="10" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E31" s="11"/>
       <c r="F31" s="12"/>
@@ -2557,13 +2557,13 @@
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="7"/>
       <c r="G32" s="4"/>
       <c r="H32" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" ht="94.5" spans="1:10">
@@ -2571,7 +2571,7 @@
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="7"/>
@@ -2579,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="H33" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" ht="27" spans="1:10">
@@ -2587,7 +2587,7 @@
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="26" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E34" s="11"/>
       <c r="F34" s="12"/>
@@ -2595,7 +2595,7 @@
         <v>16</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:10">
@@ -2603,7 +2603,7 @@
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E35" s="33"/>
       <c r="F35" s="34"/>
@@ -2611,7 +2611,7 @@
         <v>16</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="36" spans="1:10">
@@ -2619,7 +2619,7 @@
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="10" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E36" s="33"/>
       <c r="F36" s="34"/>
@@ -2627,13 +2627,13 @@
         <v>16</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="21"/>
       <c r="B37" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2648,7 +2648,7 @@
       <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="12"/>
@@ -2663,7 +2663,7 @@
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="10" t="s">
-        <v>47</v>
+        <v>15</v>
       </c>
       <c r="E39" s="11"/>
       <c r="F39" s="12"/>
@@ -2679,13 +2679,13 @@
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E40" s="6"/>
       <c r="F40" s="7"/>
       <c r="G40" s="4"/>
       <c r="H40" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="41" ht="81" spans="1:10">
@@ -2693,7 +2693,7 @@
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E41" s="6"/>
       <c r="F41" s="7"/>
@@ -2701,7 +2701,7 @@
         <v>16</v>
       </c>
       <c r="H41" s="9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="42" ht="27" spans="1:10">
@@ -2709,7 +2709,7 @@
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E42" s="11"/>
       <c r="F42" s="12"/>
@@ -2717,7 +2717,7 @@
         <v>16</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I42" s="35"/>
       <c r="J42" s="35"/>
@@ -2861,10 +2861,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -2892,7 +2892,7 @@
     <row r="4" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2904,13 +2904,13 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -3777,10 +3777,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" s="3" t="s">
         <v>62</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>63</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -3808,7 +3808,7 @@
     <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3820,13 +3820,13 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>65</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -1887,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2809,7 +2809,7 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A20" workbookViewId="0">
       <selection activeCell="V37" sqref="V37"/>
     </sheetView>
   </sheetViews>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -1887,8 +1887,8 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J36" sqref="J36"/>
+    <sheetView topLeftCell="A33" workbookViewId="0">
+      <selection activeCell="H47" sqref="H47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2809,8 +2809,8 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="V37" sqref="V37"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3725,8 +3725,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="N7" sqref="N7"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -1462,7 +1462,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1526,9 +1526,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1561,15 +1558,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1887,8 +1875,8 @@
   <sheetPr/>
   <dimension ref="A1:Q46"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
-      <selection activeCell="H47" sqref="H47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I52" sqref="I52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1961,7 +1949,7 @@
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="21" t="s">
+      <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12"/>
@@ -1983,7 +1971,7 @@
       <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="21"/>
+      <c r="A4" s="2"/>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
@@ -2005,9 +1993,9 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="21"/>
+      <c r="A5" s="2"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="21" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12"/>
@@ -2027,10 +2015,10 @@
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="21"/>
+      <c r="A6" s="2"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="23"/>
-      <c r="D6" s="24" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="23" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="11"/>
@@ -2051,10 +2039,10 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="21"/>
+      <c r="A7" s="2"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25" t="s">
+      <c r="C7" s="22"/>
+      <c r="D7" s="24" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6"/>
@@ -2075,10 +2063,10 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="21"/>
+      <c r="A8" s="2"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25" t="s">
+      <c r="C8" s="22"/>
+      <c r="D8" s="24" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="6"/>
@@ -2099,10 +2087,10 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="21"/>
+      <c r="A9" s="2"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="25" t="s">
+      <c r="C9" s="22"/>
+      <c r="D9" s="24" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="6"/>
@@ -2123,10 +2111,10 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" ht="54" spans="1:17">
-      <c r="A10" s="21"/>
+      <c r="A10" s="2"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="23"/>
-      <c r="D10" s="25" t="s">
+      <c r="C10" s="22"/>
+      <c r="D10" s="24" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="6"/>
@@ -2147,10 +2135,10 @@
       <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="21"/>
+      <c r="A11" s="2"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="26" t="s">
+      <c r="C11" s="22"/>
+      <c r="D11" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="11"/>
@@ -2171,10 +2159,10 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="21"/>
+      <c r="A12" s="2"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="22" t="s">
+      <c r="C12" s="22"/>
+      <c r="D12" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="10"/>
@@ -2193,11 +2181,11 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="21"/>
+      <c r="A13" s="2"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="22" t="s">
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="11"/>
@@ -2215,11 +2203,11 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" ht="121.5" spans="1:17">
-      <c r="A14" s="21"/>
+      <c r="A14" s="2"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
       <c r="F14" s="10" t="s">
         <v>30</v>
       </c>
@@ -2239,11 +2227,11 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" spans="1:17">
-      <c r="A15" s="21"/>
+      <c r="A15" s="2"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
+      <c r="C15" s="22"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="22"/>
       <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
@@ -2262,11 +2250,11 @@
       <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="21"/>
+      <c r="A16" s="2"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
       <c r="F16" s="10" t="s">
         <v>34</v>
       </c>
@@ -2285,7 +2273,7 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="21"/>
+      <c r="A17" s="2"/>
       <c r="B17" s="8" t="s">
         <v>36</v>
       </c>
@@ -2306,7 +2294,7 @@
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="21"/>
+      <c r="A18" s="2"/>
       <c r="B18" s="8"/>
       <c r="C18" s="2" t="s">
         <v>37</v>
@@ -2327,7 +2315,7 @@
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="21"/>
+      <c r="A19" s="2"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2"/>
       <c r="D19" s="10" t="s">
@@ -2350,7 +2338,7 @@
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="21"/>
+      <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="4" t="s">
@@ -2373,10 +2361,10 @@
       <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="21"/>
+      <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="25" t="s">
         <v>26</v>
       </c>
       <c r="E21" s="11"/>
@@ -2389,10 +2377,10 @@
       </c>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="21"/>
+      <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="22" t="s">
+      <c r="D22" s="21" t="s">
         <v>28</v>
       </c>
       <c r="E22" s="11"/>
@@ -2403,11 +2391,11 @@
       <c r="H22" s="4"/>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="21"/>
+      <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="22" t="s">
+      <c r="D23" s="22"/>
+      <c r="E23" s="21" t="s">
         <v>29</v>
       </c>
       <c r="F23" s="2"/>
@@ -2417,11 +2405,11 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" ht="121.5" spans="1:17">
-      <c r="A24" s="21"/>
+      <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="22"/>
       <c r="F24" s="10" t="s">
         <v>30</v>
       </c>
@@ -2433,11 +2421,11 @@
       </c>
     </row>
     <row r="25" spans="1:17">
-      <c r="A25" s="21"/>
+      <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
       <c r="F25" s="10" t="s">
         <v>32</v>
       </c>
@@ -2449,58 +2437,58 @@
       </c>
     </row>
     <row r="26" spans="1:17">
-      <c r="A26" s="21"/>
+      <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="27" t="s">
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="26" t="s">
         <v>39</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="27" t="s">
+      <c r="H26" s="26" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="21"/>
+      <c r="A27" s="2"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="27" t="s">
+      <c r="D27" s="22"/>
+      <c r="E27" s="22"/>
+      <c r="F27" s="26" t="s">
         <v>41</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="27" t="s">
+      <c r="H27" s="26" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" ht="54" spans="1:17">
-      <c r="A28" s="21"/>
+      <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
       <c r="F28" s="10" t="s">
         <v>43</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="29" t="s">
+      <c r="H28" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="31"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="30"/>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="21"/>
+      <c r="A29" s="2"/>
       <c r="B29" s="8" t="s">
         <v>45</v>
       </c>
@@ -2512,12 +2500,12 @@
         <v>13</v>
       </c>
       <c r="H29" s="3"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="31"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="30"/>
     </row>
     <row r="30" spans="1:17">
-      <c r="A30" s="21"/>
+      <c r="A30" s="2"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2" t="s">
         <v>46</v>
@@ -2529,12 +2517,12 @@
         <v>11</v>
       </c>
       <c r="H30" s="4"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="31"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="21"/>
+      <c r="A31" s="2"/>
       <c r="B31" s="8"/>
       <c r="C31" s="2"/>
       <c r="D31" s="10" t="s">
@@ -2548,12 +2536,12 @@
       <c r="H31" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="I31" s="30"/>
-      <c r="J31" s="32"/>
-      <c r="K31" s="31"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="31"/>
+      <c r="K31" s="30"/>
     </row>
     <row r="32" ht="27" spans="1:17">
-      <c r="A32" s="21"/>
+      <c r="A32" s="2"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2"/>
       <c r="D32" s="4" t="s">
@@ -2567,7 +2555,7 @@
       </c>
     </row>
     <row r="33" ht="94.5" spans="1:10">
-      <c r="A33" s="21"/>
+      <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="4" t="s">
@@ -2583,10 +2571,10 @@
       </c>
     </row>
     <row r="34" ht="27" spans="1:10">
-      <c r="A34" s="21"/>
+      <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="26" t="s">
+      <c r="D34" s="25" t="s">
         <v>51</v>
       </c>
       <c r="E34" s="11"/>
@@ -2599,15 +2587,15 @@
       </c>
     </row>
     <row r="35" spans="1:10">
-      <c r="A35" s="21"/>
+      <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="27" t="s">
+      <c r="E35" s="11"/>
+      <c r="F35" s="13"/>
+      <c r="G35" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H35" s="4" t="s">
@@ -2615,15 +2603,15 @@
       </c>
     </row>
     <row r="36" spans="1:10">
-      <c r="A36" s="21"/>
+      <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
       <c r="D36" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="27" t="s">
+      <c r="E36" s="11"/>
+      <c r="F36" s="13"/>
+      <c r="G36" s="26" t="s">
         <v>16</v>
       </c>
       <c r="H36" s="4" t="s">
@@ -2631,7 +2619,7 @@
       </c>
     </row>
     <row r="37" spans="1:10">
-      <c r="A37" s="21"/>
+      <c r="A37" s="2"/>
       <c r="B37" s="8" t="s">
         <v>57</v>
       </c>
@@ -2645,7 +2633,7 @@
       <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:10">
-      <c r="A38" s="21"/>
+      <c r="A38" s="2"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2" t="s">
         <v>58</v>
@@ -2659,7 +2647,7 @@
       <c r="H38" s="4"/>
     </row>
     <row r="39" spans="1:10">
-      <c r="A39" s="21"/>
+      <c r="A39" s="2"/>
       <c r="B39" s="8"/>
       <c r="C39" s="2"/>
       <c r="D39" s="10" t="s">
@@ -2675,7 +2663,7 @@
       </c>
     </row>
     <row r="40" ht="27" spans="1:10">
-      <c r="A40" s="21"/>
+      <c r="A40" s="2"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2"/>
       <c r="D40" s="4" t="s">
@@ -2689,7 +2677,7 @@
       </c>
     </row>
     <row r="41" ht="81" spans="1:10">
-      <c r="A41" s="21"/>
+      <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="4" t="s">
@@ -2705,7 +2693,7 @@
       </c>
     </row>
     <row r="42" ht="27" spans="1:10">
-      <c r="A42" s="21"/>
+      <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="3" t="s">
@@ -2719,40 +2707,40 @@
       <c r="H42" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="I42" s="35"/>
-      <c r="J42" s="35"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
     <row r="43" spans="1:10">
-      <c r="E43" s="35"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="35"/>
-      <c r="I43" s="35"/>
-      <c r="J43" s="35"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
     </row>
     <row r="44" spans="1:10">
-      <c r="E44" s="35"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="35"/>
-      <c r="H44" s="35"/>
-      <c r="I44" s="35"/>
-      <c r="J44" s="35"/>
+      <c r="E44" s="30"/>
+      <c r="F44" s="30"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
     </row>
     <row r="45" spans="1:10">
-      <c r="E45" s="35"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="36"/>
-      <c r="I45" s="35"/>
-      <c r="J45" s="35"/>
+      <c r="E45" s="30"/>
+      <c r="F45" s="30"/>
+      <c r="G45" s="29"/>
+      <c r="H45" s="32"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
     </row>
     <row r="46" spans="1:10">
-      <c r="E46" s="35"/>
-      <c r="F46" s="31"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="36"/>
-      <c r="I46" s="35"/>
-      <c r="J46" s="35"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -2809,7 +2797,7 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A7" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
@@ -3725,7 +3713,7 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -1876,7 +1876,7 @@
   <dimension ref="A1:Q46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I52" sqref="I52"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2798,7 +2798,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="289" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="122">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -302,6 +302,14 @@
 7：除湿器</t>
   </si>
   <si>
+    <t>protocol(p)</t>
+  </si>
+  <si>
+    <t>0：modbus协议（可配）
+1：CAN协议（可配）
+2：鸿海盛消防探测器(CAN)</t>
+  </si>
+  <si>
     <t>device_no(dn)</t>
   </si>
   <si>
@@ -412,10 +420,6 @@
   </si>
   <si>
     <t>protocol</t>
-  </si>
-  <si>
-    <t>0：modbus协议
-1：CAN协议</t>
   </si>
   <si>
     <t>device_type</t>
@@ -1873,10 +1877,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q46"/>
+  <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J28" sqref="J28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1888,7 +1892,7 @@
     <col min="5" max="5" width="16.1946902654867" customWidth="1"/>
     <col min="6" max="6" width="17.3274336283186" customWidth="1"/>
     <col min="7" max="7" width="7.53097345132743" customWidth="1"/>
-    <col min="8" max="8" width="22.8318584070796" customWidth="1"/>
+    <col min="8" max="8" width="25.8230088495575" customWidth="1"/>
     <col min="9" max="16383" width="15.8230088495575" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2226,7 +2230,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" spans="1:17">
+    <row r="15" ht="40.5" spans="1:17">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="22"/>
@@ -2238,7 +2242,7 @@
       <c r="G15" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H15" s="4" t="s">
+      <c r="H15" s="5" t="s">
         <v>33</v>
       </c>
       <c r="K15" s="20"/>
@@ -2274,17 +2278,19 @@
     </row>
     <row r="17" spans="1:17">
       <c r="A17" s="2"/>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="13"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
       <c r="G17" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H17" s="3"/>
+        <v>16</v>
+      </c>
+      <c r="H17" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="K17" s="20"/>
       <c r="L17" s="20"/>
       <c r="M17" s="20"/>
@@ -2295,17 +2301,17 @@
     </row>
     <row r="18" spans="1:17">
       <c r="A18" s="2"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
+      <c r="B18" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
       <c r="G18" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" s="4"/>
+        <v>13</v>
+      </c>
+      <c r="H18" s="3"/>
       <c r="K18" s="20"/>
       <c r="L18" s="20"/>
       <c r="M18" s="20"/>
@@ -2317,18 +2323,16 @@
     <row r="19" spans="1:17">
       <c r="A19" s="2"/>
       <c r="B19" s="8"/>
-      <c r="C19" s="2"/>
-      <c r="D19" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="11"/>
+      <c r="C19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19" s="11"/>
+      <c r="E19" s="12"/>
       <c r="F19" s="12"/>
       <c r="G19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="H19" s="4"/>
       <c r="K19" s="20"/>
       <c r="L19" s="20"/>
       <c r="M19" s="20"/>
@@ -2341,16 +2345,16 @@
       <c r="A20" s="2"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
-      <c r="D20" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E20" s="6"/>
-      <c r="F20" s="7"/>
+      <c r="D20" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E20" s="11"/>
+      <c r="F20" s="12"/>
       <c r="G20" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="K20" s="20"/>
       <c r="L20" s="20"/>
@@ -2364,92 +2368,99 @@
       <c r="A21" s="2"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
-      <c r="D21" s="25" t="s">
-        <v>26</v>
-      </c>
-      <c r="E21" s="11"/>
-      <c r="F21" s="12"/>
+      <c r="D21" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="7"/>
       <c r="G21" s="4" t="s">
         <v>16</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>27</v>
-      </c>
+        <v>19</v>
+      </c>
+      <c r="K21" s="20"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="20"/>
+      <c r="N21" s="20"/>
+      <c r="O21" s="20"/>
+      <c r="P21" s="20"/>
+      <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17">
       <c r="A22" s="2"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="21" t="s">
-        <v>28</v>
+      <c r="D22" s="25" t="s">
+        <v>26</v>
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="12"/>
       <c r="G22" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H22" s="4"/>
+        <v>16</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="23" spans="1:17">
       <c r="A23" s="2"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2"/>
+      <c r="D23" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="E23" s="11"/>
+      <c r="F23" s="12"/>
       <c r="G23" s="4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" ht="121.5" spans="1:17">
+    <row r="24" spans="1:17">
       <c r="A24" s="2"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
       <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="10" t="s">
-        <v>30</v>
-      </c>
+      <c r="E24" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11</v>
+      </c>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" ht="121.5" spans="1:17">
       <c r="A25" s="2"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
       <c r="D25" s="22"/>
       <c r="E25" s="22"/>
       <c r="F25" s="10" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G25" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H25" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17">
+      <c r="H25" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" ht="40.5" spans="1:17">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
       <c r="D26" s="22"/>
       <c r="E26" s="22"/>
-      <c r="F26" s="26" t="s">
-        <v>39</v>
+      <c r="F26" s="10" t="s">
+        <v>32</v>
       </c>
       <c r="G26" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H26" s="26" t="s">
-        <v>40</v>
+      <c r="H26" s="5" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -2458,289 +2469,321 @@
       <c r="C27" s="2"/>
       <c r="D27" s="22"/>
       <c r="E27" s="22"/>
-      <c r="F27" s="26" t="s">
-        <v>41</v>
+      <c r="F27" s="10" t="s">
+        <v>34</v>
       </c>
       <c r="G27" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H27" s="26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="28" ht="54" spans="1:17">
+      <c r="H27" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
       <c r="A28" s="2"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="10" t="s">
-        <v>43</v>
+      <c r="D28" s="22"/>
+      <c r="E28" s="22"/>
+      <c r="F28" s="26" t="s">
+        <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="28" t="s">
-        <v>44</v>
-      </c>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="30"/>
+      <c r="H28" s="26" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="29" spans="1:17">
       <c r="A29" s="2"/>
-      <c r="B29" s="8" t="s">
-        <v>45</v>
-      </c>
+      <c r="B29" s="8"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="22"/>
+      <c r="F29" s="26" t="s">
+        <v>43</v>
+      </c>
       <c r="G29" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="30"/>
-    </row>
-    <row r="30" spans="1:17">
+        <v>16</v>
+      </c>
+      <c r="H29" s="26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="30" ht="54" spans="1:17">
       <c r="A30" s="2"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="2" t="s">
+      <c r="C30" s="2"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
-      <c r="G30" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H30" s="4"/>
       <c r="I30" s="29"/>
       <c r="J30" s="29"/>
       <c r="K30" s="30"/>
     </row>
     <row r="31" spans="1:17">
       <c r="A31" s="2"/>
-      <c r="B31" s="8"/>
+      <c r="B31" s="8" t="s">
+        <v>47</v>
+      </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E31" s="11"/>
-      <c r="F31" s="12"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
       <c r="G31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="4" t="s">
-        <v>38</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="H31" s="3"/>
       <c r="I31" s="29"/>
-      <c r="J31" s="31"/>
+      <c r="J31" s="29"/>
       <c r="K31" s="30"/>
     </row>
-    <row r="32" ht="27" spans="1:17">
+    <row r="32" spans="1:17">
       <c r="A32" s="2"/>
       <c r="B32" s="8"/>
-      <c r="C32" s="2"/>
-      <c r="D32" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E32" s="6"/>
-      <c r="F32" s="7"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="9" t="s">
+      <c r="C32" s="2" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="33" ht="94.5" spans="1:10">
+      <c r="D32" s="11"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
+      <c r="G32" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H32" s="4"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="30"/>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="2"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
-      <c r="D33" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E33" s="6"/>
-      <c r="F33" s="7"/>
+      <c r="D33" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E33" s="11"/>
+      <c r="F33" s="12"/>
       <c r="G33" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H33" s="9" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="34" ht="27" spans="1:10">
+      <c r="H33" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="29"/>
+      <c r="J33" s="31"/>
+      <c r="K33" s="30"/>
+    </row>
+    <row r="34" ht="27" spans="1:11">
       <c r="A34" s="2"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
-      <c r="D34" s="25" t="s">
-        <v>51</v>
-      </c>
-      <c r="E34" s="11"/>
-      <c r="F34" s="12"/>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D34" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="7"/>
+      <c r="G34" s="4"/>
       <c r="H34" s="9" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" ht="94.5" spans="1:11">
       <c r="A35" s="2"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
-      <c r="D35" s="10" t="s">
-        <v>53</v>
-      </c>
-      <c r="E35" s="11"/>
-      <c r="F35" s="13"/>
-      <c r="G35" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10">
+      <c r="D35" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="7"/>
+      <c r="G35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="9" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="36" ht="27" spans="1:11">
       <c r="A36" s="2"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="25" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" s="11"/>
+      <c r="F36" s="12"/>
+      <c r="G36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2"/>
+      <c r="B37" s="8"/>
+      <c r="C37" s="2"/>
+      <c r="D37" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="E36" s="11"/>
-      <c r="F36" s="13"/>
-      <c r="G36" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="4" t="s">
+      <c r="E37" s="11"/>
+      <c r="F37" s="13"/>
+      <c r="G37" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="37" spans="1:10">
-      <c r="A37" s="2"/>
-      <c r="B37" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" s="2"/>
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H37" s="3"/>
-    </row>
-    <row r="38" spans="1:10">
+    <row r="38" spans="1:11">
       <c r="A38" s="2"/>
       <c r="B38" s="8"/>
-      <c r="C38" s="2" t="s">
+      <c r="C38" s="2"/>
+      <c r="D38" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="11"/>
+      <c r="F38" s="13"/>
+      <c r="G38" s="26" t="s">
+        <v>16</v>
+      </c>
+      <c r="H38" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D38" s="11"/>
-      <c r="E38" s="12"/>
-      <c r="F38" s="12"/>
-      <c r="G38" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="H38" s="4"/>
-    </row>
-    <row r="39" spans="1:10">
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="2"/>
-      <c r="B39" s="8"/>
+      <c r="B39" s="8" t="s">
+        <v>59</v>
+      </c>
       <c r="C39" s="2"/>
-      <c r="D39" s="10" t="s">
-        <v>15</v>
-      </c>
-      <c r="E39" s="11"/>
-      <c r="F39" s="12"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
       <c r="G39" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H39" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" ht="27" spans="1:10">
+        <v>13</v>
+      </c>
+      <c r="H39" s="3"/>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="2"/>
       <c r="B40" s="8"/>
-      <c r="C40" s="2"/>
-      <c r="D40" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E40" s="6"/>
-      <c r="F40" s="7"/>
-      <c r="G40" s="4"/>
-      <c r="H40" s="9" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="41" ht="81" spans="1:10">
+      <c r="C40" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D40" s="11"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H40" s="4"/>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="2"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
-      <c r="D41" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E41" s="6"/>
-      <c r="F41" s="7"/>
+      <c r="D41" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E41" s="11"/>
+      <c r="F41" s="12"/>
       <c r="G41" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="42" ht="27" spans="1:10">
+      <c r="H41" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" ht="27" spans="1:11">
       <c r="A42" s="2"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
-      <c r="D42" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="E42" s="11"/>
-      <c r="F42" s="12"/>
-      <c r="G42" s="4" t="s">
-        <v>16</v>
-      </c>
+      <c r="D42" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E42" s="6"/>
+      <c r="F42" s="7"/>
+      <c r="G42" s="4"/>
       <c r="H42" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
-    </row>
-    <row r="43" spans="1:10">
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-    </row>
-    <row r="44" spans="1:10">
-      <c r="E44" s="30"/>
-      <c r="F44" s="30"/>
-      <c r="G44" s="30"/>
-      <c r="H44" s="30"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" ht="81" spans="1:11">
+      <c r="A43" s="2"/>
+      <c r="B43" s="8"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E43" s="6"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H43" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" ht="27" spans="1:11">
+      <c r="A44" s="2"/>
+      <c r="B44" s="8"/>
+      <c r="C44" s="2"/>
+      <c r="D44" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E44" s="11"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="I44" s="30"/>
       <c r="J44" s="30"/>
     </row>
-    <row r="45" spans="1:10">
+    <row r="45" spans="1:11">
       <c r="E45" s="30"/>
       <c r="F45" s="30"/>
-      <c r="G45" s="29"/>
-      <c r="H45" s="32"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
       <c r="I45" s="30"/>
       <c r="J45" s="30"/>
     </row>
-    <row r="46" spans="1:10">
+    <row r="46" spans="1:11">
       <c r="E46" s="30"/>
       <c r="F46" s="30"/>
-      <c r="G46" s="29"/>
-      <c r="H46" s="32"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
       <c r="I46" s="30"/>
       <c r="J46" s="30"/>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="E47" s="30"/>
+      <c r="F47" s="30"/>
+      <c r="G47" s="29"/>
+      <c r="H47" s="32"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="29"/>
+      <c r="H48" s="32"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="42">
@@ -2754,37 +2797,37 @@
     <mergeCell ref="E9:F9"/>
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="E11:F11"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="D19:F19"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
-    <mergeCell ref="C29:F29"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="E31:F31"/>
+    <mergeCell ref="E23:F23"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="D32:F32"/>
     <mergeCell ref="E33:F33"/>
-    <mergeCell ref="E34:F34"/>
     <mergeCell ref="E35:F35"/>
     <mergeCell ref="E36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="E39:F39"/>
+    <mergeCell ref="E37:F37"/>
+    <mergeCell ref="E38:F38"/>
+    <mergeCell ref="C39:F39"/>
+    <mergeCell ref="D40:F40"/>
     <mergeCell ref="E41:F41"/>
-    <mergeCell ref="E42:F42"/>
-    <mergeCell ref="A3:A42"/>
-    <mergeCell ref="B4:B16"/>
-    <mergeCell ref="B17:B28"/>
-    <mergeCell ref="B29:B36"/>
-    <mergeCell ref="B37:B42"/>
-    <mergeCell ref="C5:C16"/>
-    <mergeCell ref="C18:C28"/>
-    <mergeCell ref="C30:C36"/>
-    <mergeCell ref="C38:C42"/>
-    <mergeCell ref="D12:D16"/>
-    <mergeCell ref="D22:D28"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="E23:E28"/>
+    <mergeCell ref="E43:F43"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A3:A44"/>
+    <mergeCell ref="B4:B17"/>
+    <mergeCell ref="B18:B30"/>
+    <mergeCell ref="B31:B38"/>
+    <mergeCell ref="B39:B44"/>
+    <mergeCell ref="C5:C17"/>
+    <mergeCell ref="C19:C30"/>
+    <mergeCell ref="C32:C38"/>
+    <mergeCell ref="C40:C44"/>
+    <mergeCell ref="D12:D17"/>
+    <mergeCell ref="D23:D30"/>
+    <mergeCell ref="E13:E17"/>
+    <mergeCell ref="E24:E30"/>
     <mergeCell ref="J1:Q14"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2798,7 +2841,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2849,10 +2892,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -2877,10 +2920,10 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="27" spans="1:10">
+    <row r="4" ht="40.5" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2892,13 +2935,13 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -2910,13 +2953,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -2928,14 +2971,14 @@
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2946,14 +2989,14 @@
         <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
@@ -2970,7 +3013,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -2987,7 +3030,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
@@ -2996,7 +3039,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3005,7 +3048,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -3014,7 +3057,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3023,7 +3066,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -3032,7 +3075,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3041,7 +3084,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -3050,13 +3093,13 @@
         <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3068,14 +3111,14 @@
         <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3086,17 +3129,17 @@
         <v>16</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3113,7 +3156,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -3122,7 +3165,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3131,7 +3174,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3140,7 +3183,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:10">
@@ -3149,7 +3192,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -3158,7 +3201,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" ht="270" spans="1:10">
@@ -3167,7 +3210,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3176,7 +3219,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3185,7 +3228,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
@@ -3194,7 +3237,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3203,7 +3246,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3212,7 +3255,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3221,7 +3264,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3230,7 +3273,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3239,7 +3282,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3255,7 +3298,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3264,7 +3307,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3273,7 +3316,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3282,7 +3325,7 @@
         <v>16</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" ht="135" spans="1:10">
@@ -3291,7 +3334,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3300,7 +3343,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3310,7 +3353,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3318,7 +3361,7 @@
         <v>16</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3328,7 +3371,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3345,7 +3388,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
@@ -3361,13 +3404,13 @@
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3378,7 +3421,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
@@ -3395,13 +3438,13 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3442,7 +3485,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3713,8 +3756,8 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -3733,7 +3776,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3765,10 +3808,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -3793,10 +3836,10 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="27" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3808,13 +3851,13 @@
         <v>16</v>
       </c>
       <c r="J4" s="5" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -3826,13 +3869,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3844,14 +3887,14 @@
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3862,17 +3905,17 @@
         <v>16</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3889,7 +3932,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
@@ -3898,7 +3941,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
@@ -3907,7 +3950,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3916,7 +3959,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="67.5" spans="1:10">
@@ -3925,7 +3968,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -3934,7 +3977,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="270" spans="1:10">
@@ -3943,7 +3986,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3952,7 +3995,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -3961,7 +4004,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -3970,7 +4013,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -3979,7 +4022,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -3988,7 +4031,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -3997,7 +4040,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4006,7 +4049,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
@@ -4015,7 +4058,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4031,7 +4074,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4040,7 +4083,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
@@ -4049,7 +4092,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
@@ -4058,7 +4101,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="135" spans="1:12">
@@ -4067,7 +4110,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4076,7 +4119,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
@@ -4086,7 +4129,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4094,7 +4137,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
@@ -4104,7 +4147,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4121,7 +4164,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
@@ -4137,13 +4180,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
@@ -4154,7 +4197,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
@@ -4171,18 +4214,18 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555"/>
+    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -307,7 +307,8 @@
   <si>
     <t>0：modbus协议（可配）
 1：CAN协议（可配）
-2：鸿海盛消防探测器(CAN)</t>
+2：鸿海盛消防探测器(CAN)
+3: 恩玖PCS(CAN)</t>
   </si>
   <si>
     <t>device_no(dn)</t>
@@ -1879,8 +1880,8 @@
   <sheetPr/>
   <dimension ref="A1:Q48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="J28" sqref="J28"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2230,7 +2231,7 @@
       <c r="P14" s="18"/>
       <c r="Q14" s="18"/>
     </row>
-    <row r="15" ht="40.5" spans="1:17">
+    <row r="15" ht="54" spans="1:17">
       <c r="A15" s="2"/>
       <c r="B15" s="13"/>
       <c r="C15" s="22"/>
@@ -2447,7 +2448,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="26" ht="40.5" spans="1:17">
+    <row r="26" ht="54" spans="1:17">
       <c r="A26" s="2"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
@@ -2920,7 +2921,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" ht="40.5" spans="1:10">
+    <row r="4" ht="54" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>65</v>
@@ -3756,7 +3757,7 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -3836,7 +3837,7 @@
       </c>
       <c r="J3" s="5"/>
     </row>
-    <row r="4" s="1" customFormat="1" ht="40.5" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="54" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
         <v>65</v>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20752" windowHeight="9555" activeTab="2"/>
+    <workbookView windowWidth="20752" windowHeight="9555"/>
   </bookViews>
   <sheets>
     <sheet name="port config" sheetId="5" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="128">
   <si>
     <t>modbus cJSON</t>
   </si>
@@ -412,6 +412,26 @@
 2：加热器控制
 3：双色电源灯控制红
 4：双色电源灯控制绿</t>
+  </si>
+  <si>
+    <t>NTC</t>
+  </si>
+  <si>
+    <t>NTC[0]</t>
+  </si>
+  <si>
+    <t>temp(tp)</t>
+  </si>
+  <si>
+    <t>接入的温度
+0：配电仓温度</t>
+  </si>
+  <si>
+    <t>table(tb)</t>
+  </si>
+  <si>
+    <t>阻值表
+0：3435</t>
   </si>
   <si>
     <t>层级7</t>
@@ -1531,6 +1551,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1563,9 +1586,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1878,10 +1898,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q48"/>
+  <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
+      <selection activeCell="E53" sqref="E53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -1954,7 +1974,7 @@
       <c r="Q2" s="18"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B3" s="12"/>
@@ -1976,7 +1996,7 @@
       <c r="Q3" s="18"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="2"/>
+      <c r="A4" s="21"/>
       <c r="B4" s="13" t="s">
         <v>12</v>
       </c>
@@ -1998,9 +2018,9 @@
       <c r="Q4" s="18"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="2"/>
+      <c r="A5" s="21"/>
       <c r="B5" s="13"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="22" t="s">
         <v>14</v>
       </c>
       <c r="D5" s="12"/>
@@ -2020,10 +2040,10 @@
       <c r="Q5" s="18"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="2"/>
+      <c r="A6" s="21"/>
       <c r="B6" s="13"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23" t="s">
+      <c r="C6" s="23"/>
+      <c r="D6" s="24" t="s">
         <v>15</v>
       </c>
       <c r="E6" s="11"/>
@@ -2044,10 +2064,10 @@
       <c r="Q6" s="18"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="2"/>
+      <c r="A7" s="21"/>
       <c r="B7" s="13"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="24" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25" t="s">
         <v>18</v>
       </c>
       <c r="E7" s="6"/>
@@ -2068,10 +2088,10 @@
       <c r="Q7" s="18"/>
     </row>
     <row r="8" spans="1:17">
-      <c r="A8" s="2"/>
+      <c r="A8" s="21"/>
       <c r="B8" s="13"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="24" t="s">
+      <c r="C8" s="23"/>
+      <c r="D8" s="25" t="s">
         <v>20</v>
       </c>
       <c r="E8" s="6"/>
@@ -2092,10 +2112,10 @@
       <c r="Q8" s="18"/>
     </row>
     <row r="9" spans="1:17">
-      <c r="A9" s="2"/>
+      <c r="A9" s="21"/>
       <c r="B9" s="13"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="24" t="s">
+      <c r="C9" s="23"/>
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
       <c r="E9" s="6"/>
@@ -2116,10 +2136,10 @@
       <c r="Q9" s="18"/>
     </row>
     <row r="10" ht="54" spans="1:17">
-      <c r="A10" s="2"/>
+      <c r="A10" s="21"/>
       <c r="B10" s="13"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="24" t="s">
+      <c r="C10" s="23"/>
+      <c r="D10" s="25" t="s">
         <v>24</v>
       </c>
       <c r="E10" s="6"/>
@@ -2140,10 +2160,10 @@
       <c r="Q10" s="18"/>
     </row>
     <row r="11" spans="1:17">
-      <c r="A11" s="2"/>
+      <c r="A11" s="21"/>
       <c r="B11" s="13"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="25" t="s">
+      <c r="C11" s="23"/>
+      <c r="D11" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E11" s="11"/>
@@ -2164,10 +2184,10 @@
       <c r="Q11" s="18"/>
     </row>
     <row r="12" spans="1:17">
-      <c r="A12" s="2"/>
+      <c r="A12" s="21"/>
       <c r="B12" s="13"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="21" t="s">
+      <c r="C12" s="23"/>
+      <c r="D12" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E12" s="10"/>
@@ -2186,11 +2206,11 @@
       <c r="Q12" s="18"/>
     </row>
     <row r="13" spans="1:17">
-      <c r="A13" s="2"/>
+      <c r="A13" s="21"/>
       <c r="B13" s="13"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="21" t="s">
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F13" s="11"/>
@@ -2208,11 +2228,11 @@
       <c r="Q13" s="18"/>
     </row>
     <row r="14" ht="121.5" spans="1:17">
-      <c r="A14" s="2"/>
+      <c r="A14" s="21"/>
       <c r="B14" s="13"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="10" t="s">
         <v>30</v>
       </c>
@@ -2232,11 +2252,11 @@
       <c r="Q14" s="18"/>
     </row>
     <row r="15" ht="54" spans="1:17">
-      <c r="A15" s="2"/>
+      <c r="A15" s="21"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="10" t="s">
         <v>32</v>
       </c>
@@ -2255,11 +2275,11 @@
       <c r="Q15" s="20"/>
     </row>
     <row r="16" spans="1:17">
-      <c r="A16" s="2"/>
+      <c r="A16" s="21"/>
       <c r="B16" s="13"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="10" t="s">
         <v>34</v>
       </c>
@@ -2278,11 +2298,11 @@
       <c r="Q16" s="20"/>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="2"/>
+      <c r="A17" s="21"/>
       <c r="B17" s="13"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="10" t="s">
         <v>36</v>
       </c>
@@ -2301,7 +2321,7 @@
       <c r="Q17" s="20"/>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="2"/>
+      <c r="A18" s="21"/>
       <c r="B18" s="8" t="s">
         <v>38</v>
       </c>
@@ -2322,7 +2342,7 @@
       <c r="Q18" s="20"/>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="2"/>
+      <c r="A19" s="21"/>
       <c r="B19" s="8"/>
       <c r="C19" s="2" t="s">
         <v>39</v>
@@ -2343,7 +2363,7 @@
       <c r="Q19" s="20"/>
     </row>
     <row r="20" spans="1:17">
-      <c r="A20" s="2"/>
+      <c r="A20" s="21"/>
       <c r="B20" s="8"/>
       <c r="C20" s="2"/>
       <c r="D20" s="10" t="s">
@@ -2366,7 +2386,7 @@
       <c r="Q20" s="20"/>
     </row>
     <row r="21" spans="1:17">
-      <c r="A21" s="2"/>
+      <c r="A21" s="21"/>
       <c r="B21" s="8"/>
       <c r="C21" s="2"/>
       <c r="D21" s="4" t="s">
@@ -2389,10 +2409,10 @@
       <c r="Q21" s="20"/>
     </row>
     <row r="22" spans="1:17">
-      <c r="A22" s="2"/>
+      <c r="A22" s="21"/>
       <c r="B22" s="8"/>
       <c r="C22" s="2"/>
-      <c r="D22" s="25" t="s">
+      <c r="D22" s="26" t="s">
         <v>26</v>
       </c>
       <c r="E22" s="11"/>
@@ -2405,10 +2425,10 @@
       </c>
     </row>
     <row r="23" spans="1:17">
-      <c r="A23" s="2"/>
+      <c r="A23" s="21"/>
       <c r="B23" s="8"/>
       <c r="C23" s="2"/>
-      <c r="D23" s="21" t="s">
+      <c r="D23" s="22" t="s">
         <v>28</v>
       </c>
       <c r="E23" s="11"/>
@@ -2419,11 +2439,11 @@
       <c r="H23" s="4"/>
     </row>
     <row r="24" spans="1:17">
-      <c r="A24" s="2"/>
+      <c r="A24" s="21"/>
       <c r="B24" s="8"/>
       <c r="C24" s="2"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="21" t="s">
+      <c r="D24" s="23"/>
+      <c r="E24" s="22" t="s">
         <v>29</v>
       </c>
       <c r="F24" s="2"/>
@@ -2433,11 +2453,11 @@
       <c r="H24" s="4"/>
     </row>
     <row r="25" ht="121.5" spans="1:17">
-      <c r="A25" s="2"/>
+      <c r="A25" s="21"/>
       <c r="B25" s="8"/>
       <c r="C25" s="2"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="10" t="s">
         <v>30</v>
       </c>
@@ -2449,11 +2469,11 @@
       </c>
     </row>
     <row r="26" ht="54" spans="1:17">
-      <c r="A26" s="2"/>
+      <c r="A26" s="21"/>
       <c r="B26" s="8"/>
       <c r="C26" s="2"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="10" t="s">
         <v>32</v>
       </c>
@@ -2465,11 +2485,11 @@
       </c>
     </row>
     <row r="27" spans="1:17">
-      <c r="A27" s="2"/>
+      <c r="A27" s="21"/>
       <c r="B27" s="8"/>
       <c r="C27" s="2"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="10" t="s">
         <v>34</v>
       </c>
@@ -2481,58 +2501,58 @@
       </c>
     </row>
     <row r="28" spans="1:17">
-      <c r="A28" s="2"/>
+      <c r="A28" s="21"/>
       <c r="B28" s="8"/>
       <c r="C28" s="2"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="26" t="s">
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="27" t="s">
         <v>41</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H28" s="26" t="s">
+      <c r="H28" s="27" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="29" spans="1:17">
-      <c r="A29" s="2"/>
+      <c r="A29" s="21"/>
       <c r="B29" s="8"/>
       <c r="C29" s="2"/>
-      <c r="D29" s="22"/>
-      <c r="E29" s="22"/>
-      <c r="F29" s="26" t="s">
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="27" t="s">
         <v>43</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H29" s="26" t="s">
+      <c r="H29" s="27" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="30" ht="54" spans="1:17">
-      <c r="A30" s="2"/>
+      <c r="A30" s="21"/>
       <c r="B30" s="8"/>
       <c r="C30" s="2"/>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
+      <c r="D30" s="28"/>
+      <c r="E30" s="28"/>
       <c r="F30" s="10" t="s">
         <v>45</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H30" s="28" t="s">
+      <c r="H30" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-      <c r="K30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="31"/>
     </row>
     <row r="31" spans="1:17">
-      <c r="A31" s="2"/>
+      <c r="A31" s="21"/>
       <c r="B31" s="8" t="s">
         <v>47</v>
       </c>
@@ -2544,12 +2564,12 @@
         <v>13</v>
       </c>
       <c r="H31" s="3"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-      <c r="K31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="31"/>
     </row>
     <row r="32" spans="1:17">
-      <c r="A32" s="2"/>
+      <c r="A32" s="21"/>
       <c r="B32" s="8"/>
       <c r="C32" s="2" t="s">
         <v>48</v>
@@ -2561,12 +2581,12 @@
         <v>11</v>
       </c>
       <c r="H32" s="4"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-      <c r="K32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="31"/>
     </row>
     <row r="33" spans="1:11">
-      <c r="A33" s="2"/>
+      <c r="A33" s="21"/>
       <c r="B33" s="8"/>
       <c r="C33" s="2"/>
       <c r="D33" s="10" t="s">
@@ -2580,12 +2600,12 @@
       <c r="H33" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="I33" s="29"/>
-      <c r="J33" s="31"/>
-      <c r="K33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="32"/>
+      <c r="K33" s="31"/>
     </row>
     <row r="34" ht="27" spans="1:11">
-      <c r="A34" s="2"/>
+      <c r="A34" s="21"/>
       <c r="B34" s="8"/>
       <c r="C34" s="2"/>
       <c r="D34" s="4" t="s">
@@ -2599,7 +2619,7 @@
       </c>
     </row>
     <row r="35" ht="94.5" spans="1:11">
-      <c r="A35" s="2"/>
+      <c r="A35" s="21"/>
       <c r="B35" s="8"/>
       <c r="C35" s="2"/>
       <c r="D35" s="4" t="s">
@@ -2615,10 +2635,10 @@
       </c>
     </row>
     <row r="36" ht="27" spans="1:11">
-      <c r="A36" s="2"/>
+      <c r="A36" s="21"/>
       <c r="B36" s="8"/>
       <c r="C36" s="2"/>
-      <c r="D36" s="25" t="s">
+      <c r="D36" s="26" t="s">
         <v>53</v>
       </c>
       <c r="E36" s="11"/>
@@ -2631,7 +2651,7 @@
       </c>
     </row>
     <row r="37" spans="1:11">
-      <c r="A37" s="2"/>
+      <c r="A37" s="21"/>
       <c r="B37" s="8"/>
       <c r="C37" s="2"/>
       <c r="D37" s="10" t="s">
@@ -2639,7 +2659,7 @@
       </c>
       <c r="E37" s="11"/>
       <c r="F37" s="13"/>
-      <c r="G37" s="26" t="s">
+      <c r="G37" s="27" t="s">
         <v>16</v>
       </c>
       <c r="H37" s="4" t="s">
@@ -2647,7 +2667,7 @@
       </c>
     </row>
     <row r="38" spans="1:11">
-      <c r="A38" s="2"/>
+      <c r="A38" s="21"/>
       <c r="B38" s="8"/>
       <c r="C38" s="2"/>
       <c r="D38" s="10" t="s">
@@ -2655,7 +2675,7 @@
       </c>
       <c r="E38" s="11"/>
       <c r="F38" s="13"/>
-      <c r="G38" s="26" t="s">
+      <c r="G38" s="27" t="s">
         <v>16</v>
       </c>
       <c r="H38" s="4" t="s">
@@ -2663,7 +2683,7 @@
       </c>
     </row>
     <row r="39" spans="1:11">
-      <c r="A39" s="2"/>
+      <c r="A39" s="21"/>
       <c r="B39" s="8" t="s">
         <v>59</v>
       </c>
@@ -2677,7 +2697,7 @@
       <c r="H39" s="3"/>
     </row>
     <row r="40" spans="1:11">
-      <c r="A40" s="2"/>
+      <c r="A40" s="21"/>
       <c r="B40" s="8"/>
       <c r="C40" s="2" t="s">
         <v>60</v>
@@ -2691,7 +2711,7 @@
       <c r="H40" s="4"/>
     </row>
     <row r="41" spans="1:11">
-      <c r="A41" s="2"/>
+      <c r="A41" s="21"/>
       <c r="B41" s="8"/>
       <c r="C41" s="2"/>
       <c r="D41" s="10" t="s">
@@ -2707,7 +2727,7 @@
       </c>
     </row>
     <row r="42" ht="27" spans="1:11">
-      <c r="A42" s="2"/>
+      <c r="A42" s="21"/>
       <c r="B42" s="8"/>
       <c r="C42" s="2"/>
       <c r="D42" s="4" t="s">
@@ -2721,7 +2741,7 @@
       </c>
     </row>
     <row r="43" ht="81" spans="1:11">
-      <c r="A43" s="2"/>
+      <c r="A43" s="21"/>
       <c r="B43" s="8"/>
       <c r="C43" s="2"/>
       <c r="D43" s="4" t="s">
@@ -2737,7 +2757,7 @@
       </c>
     </row>
     <row r="44" ht="27" spans="1:11">
-      <c r="A44" s="2"/>
+      <c r="A44" s="21"/>
       <c r="B44" s="8"/>
       <c r="C44" s="2"/>
       <c r="D44" s="3" t="s">
@@ -2751,43 +2771,109 @@
       <c r="H44" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="I44" s="30"/>
-      <c r="J44" s="30"/>
+      <c r="I44" s="31"/>
+      <c r="J44" s="31"/>
     </row>
     <row r="45" spans="1:11">
-      <c r="E45" s="30"/>
-      <c r="F45" s="30"/>
-      <c r="G45" s="30"/>
-      <c r="H45" s="30"/>
-      <c r="I45" s="30"/>
-      <c r="J45" s="30"/>
+      <c r="A45" s="21"/>
+      <c r="B45" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="2"/>
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2"/>
+      <c r="G45" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H45" s="3"/>
+      <c r="I45" s="31"/>
+      <c r="J45" s="31"/>
     </row>
     <row r="46" spans="1:11">
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
+      <c r="A46" s="21"/>
+      <c r="B46" s="8"/>
+      <c r="C46" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="D46" s="11"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H46" s="4"/>
+      <c r="I46" s="31"/>
+      <c r="J46" s="31"/>
     </row>
     <row r="47" spans="1:11">
-      <c r="E47" s="30"/>
-      <c r="F47" s="30"/>
-      <c r="G47" s="29"/>
-      <c r="H47" s="32"/>
-      <c r="I47" s="30"/>
-      <c r="J47" s="30"/>
-    </row>
-    <row r="48" spans="1:11">
-      <c r="E48" s="30"/>
-      <c r="F48" s="30"/>
-      <c r="G48" s="29"/>
-      <c r="H48" s="32"/>
-      <c r="I48" s="30"/>
-      <c r="J48" s="30"/>
+      <c r="A47" s="21"/>
+      <c r="B47" s="8"/>
+      <c r="C47" s="2"/>
+      <c r="D47" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E47" s="11"/>
+      <c r="F47" s="12"/>
+      <c r="G47" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="I47" s="31"/>
+      <c r="J47" s="31"/>
+    </row>
+    <row r="48" ht="27" spans="1:11">
+      <c r="A48" s="21"/>
+      <c r="B48" s="8"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E48" s="6"/>
+      <c r="F48" s="7"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="I48" s="31"/>
+      <c r="J48" s="31"/>
+    </row>
+    <row r="49" ht="27" spans="1:8">
+      <c r="A49" s="21"/>
+      <c r="B49" s="8"/>
+      <c r="C49" s="2"/>
+      <c r="D49" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="E49" s="6"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="50" ht="27" spans="1:8">
+      <c r="A50" s="21"/>
+      <c r="B50" s="8"/>
+      <c r="C50" s="2"/>
+      <c r="D50" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E50" s="11"/>
+      <c r="F50" s="12"/>
+      <c r="G50" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="9" t="s">
+        <v>68</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="42">
+  <mergeCells count="49">
     <mergeCell ref="A1:H1"/>
     <mergeCell ref="B3:F3"/>
     <mergeCell ref="C4:F4"/>
@@ -2816,15 +2902,22 @@
     <mergeCell ref="E41:F41"/>
     <mergeCell ref="E43:F43"/>
     <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A3:A44"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="E47:F47"/>
+    <mergeCell ref="E49:F49"/>
+    <mergeCell ref="E50:F50"/>
+    <mergeCell ref="A3:A50"/>
     <mergeCell ref="B4:B17"/>
     <mergeCell ref="B18:B30"/>
     <mergeCell ref="B31:B38"/>
     <mergeCell ref="B39:B44"/>
+    <mergeCell ref="B45:B50"/>
     <mergeCell ref="C5:C17"/>
     <mergeCell ref="C19:C30"/>
     <mergeCell ref="C32:C38"/>
     <mergeCell ref="C40:C44"/>
+    <mergeCell ref="C46:C50"/>
     <mergeCell ref="D12:D17"/>
     <mergeCell ref="D23:D30"/>
     <mergeCell ref="E13:E17"/>
@@ -2842,7 +2935,7 @@
   <dimension ref="A1:J58"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2893,10 +2986,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -2924,7 +3017,7 @@
     <row r="4" ht="54" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2942,7 +3035,7 @@
     <row r="5" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="11"/>
       <c r="D5" s="12"/>
@@ -2954,13 +3047,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="C6" s="11"/>
       <c r="D6" s="12"/>
@@ -2972,14 +3065,14 @@
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D7" s="11"/>
       <c r="E7" s="12"/>
@@ -2990,14 +3083,14 @@
         <v>16</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D8" s="11"/>
       <c r="E8" s="12"/>
@@ -3014,7 +3107,7 @@
       <c r="B9" s="3"/>
       <c r="C9" s="2"/>
       <c r="D9" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
@@ -3031,7 +3124,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="12"/>
@@ -3040,7 +3133,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -3049,7 +3142,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -3058,7 +3151,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -3067,7 +3160,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="12"/>
@@ -3076,7 +3169,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -3085,7 +3178,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="12"/>
@@ -3094,13 +3187,13 @@
         <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2"/>
       <c r="B14" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -3112,14 +3205,14 @@
         <v>11</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="15" ht="27" spans="1:10">
       <c r="A15" s="2"/>
       <c r="B15" s="3"/>
       <c r="C15" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
@@ -3130,17 +3223,17 @@
         <v>16</v>
       </c>
       <c r="J15" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2"/>
       <c r="B16" s="3"/>
       <c r="C16" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
@@ -3157,7 +3250,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="12"/>
@@ -3166,7 +3259,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -3175,7 +3268,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
@@ -3184,7 +3277,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="19" ht="67.5" spans="1:10">
@@ -3193,7 +3286,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F19" s="11"/>
       <c r="G19" s="12"/>
@@ -3202,7 +3295,7 @@
         <v>16</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="20" ht="270" spans="1:10">
@@ -3211,7 +3304,7 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
@@ -3220,7 +3313,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:10">
@@ -3229,7 +3322,7 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="F21" s="11"/>
       <c r="G21" s="12"/>
@@ -3238,7 +3331,7 @@
         <v>16</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -3247,7 +3340,7 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="3" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
@@ -3256,7 +3349,7 @@
         <v>16</v>
       </c>
       <c r="J22" s="3" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
     </row>
     <row r="23" spans="1:10">
@@ -3265,7 +3358,7 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="3" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
@@ -3274,7 +3367,7 @@
         <v>16</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="24" spans="1:10">
@@ -3283,7 +3376,7 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="3" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
@@ -3299,7 +3392,7 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
@@ -3308,7 +3401,7 @@
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="26" spans="1:10">
@@ -3317,7 +3410,7 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="3" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
@@ -3326,7 +3419,7 @@
         <v>16</v>
       </c>
       <c r="J26" s="3" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" ht="135" spans="1:10">
@@ -3335,7 +3428,7 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
@@ -3344,7 +3437,7 @@
         <v>11</v>
       </c>
       <c r="J27" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -3354,7 +3447,7 @@
       <c r="D28" s="2"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
@@ -3362,7 +3455,7 @@
         <v>16</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="29" spans="1:10">
@@ -3372,7 +3465,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
@@ -3389,7 +3482,7 @@
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
       <c r="G30" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H30" s="3"/>
       <c r="I30" s="3" t="s">
@@ -3405,13 +3498,13 @@
       <c r="F31" s="3"/>
       <c r="G31" s="2"/>
       <c r="H31" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J31" s="3" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:10">
@@ -3422,7 +3515,7 @@
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
       <c r="G32" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H32" s="3"/>
       <c r="I32" s="3" t="s">
@@ -3439,13 +3532,13 @@
       <c r="F33" s="3"/>
       <c r="G33" s="3"/>
       <c r="H33" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -3486,7 +3579,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="17" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="17"/>
@@ -3757,7 +3850,7 @@
   <sheetPr/>
   <dimension ref="A1:L39"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A12" workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -3777,7 +3870,7 @@
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -3809,10 +3902,10 @@
         <v>7</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>8</v>
@@ -3840,7 +3933,7 @@
     <row r="4" s="1" customFormat="1" ht="54" spans="1:10">
       <c r="A4" s="2"/>
       <c r="B4" s="3" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -3858,7 +3951,7 @@
     <row r="5" s="1" customFormat="1" ht="121.5" spans="1:10">
       <c r="A5" s="2"/>
       <c r="B5" s="4" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C5" s="6"/>
       <c r="D5" s="7"/>
@@ -3870,13 +3963,13 @@
         <v>16</v>
       </c>
       <c r="J5" s="9" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="1:10">
       <c r="A6" s="2"/>
       <c r="B6" s="3" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -3888,14 +3981,14 @@
         <v>11</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" spans="1:10">
       <c r="A7" s="2"/>
       <c r="B7" s="3"/>
       <c r="C7" s="10" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -3906,17 +3999,17 @@
         <v>16</v>
       </c>
       <c r="J7" s="5" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" spans="1:10">
       <c r="A8" s="2"/>
       <c r="B8" s="3"/>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
@@ -3933,7 +4026,7 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="12"/>
@@ -3942,7 +4035,7 @@
         <v>16</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" spans="1:10">
@@ -3951,7 +4044,7 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -3960,7 +4053,7 @@
         <v>16</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="67.5" spans="1:10">
@@ -3969,7 +4062,7 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="12"/>
@@ -3978,7 +4071,7 @@
         <v>16</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="270" spans="1:10">
@@ -3987,7 +4080,7 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
@@ -3996,7 +4089,7 @@
         <v>16</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
     </row>
     <row r="13" s="1" customFormat="1" spans="1:10">
@@ -4005,7 +4098,7 @@
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="10" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -4014,7 +4107,7 @@
         <v>16</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
     <row r="14" s="1" customFormat="1" spans="1:10">
@@ -4023,7 +4116,7 @@
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
       <c r="E14" s="10" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
@@ -4032,7 +4125,7 @@
         <v>16</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="15" s="1" customFormat="1" spans="1:10">
@@ -4041,7 +4134,7 @@
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="10" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
@@ -4050,7 +4143,7 @@
         <v>16</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" s="1" customFormat="1" spans="1:10">
@@ -4059,7 +4152,7 @@
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="10" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
@@ -4075,7 +4168,7 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
@@ -4084,7 +4177,7 @@
         <v>16</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" s="1" customFormat="1" spans="1:12">
@@ -4093,7 +4186,7 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="10" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F18" s="11"/>
       <c r="G18" s="12"/>
@@ -4102,7 +4195,7 @@
         <v>16</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="19" s="1" customFormat="1" ht="135" spans="1:12">
@@ -4111,7 +4204,7 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="3" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
@@ -4120,7 +4213,7 @@
         <v>11</v>
       </c>
       <c r="J19" s="14" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" s="1" customFormat="1" spans="1:12">
@@ -4130,7 +4223,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
@@ -4138,7 +4231,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" s="1" customFormat="1" spans="1:12">
@@ -4148,7 +4241,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
@@ -4165,7 +4258,7 @@
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
       <c r="G22" s="2" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="H22" s="3"/>
       <c r="I22" s="3" t="s">
@@ -4181,13 +4274,13 @@
       <c r="F23" s="3"/>
       <c r="G23" s="2"/>
       <c r="H23" s="3" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
     </row>
     <row r="24" s="1" customFormat="1" spans="1:12">
@@ -4198,7 +4291,7 @@
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
       <c r="G24" s="3" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="H24" s="3"/>
       <c r="I24" s="3" t="s">
@@ -4215,18 +4308,18 @@
       <c r="F25" s="3"/>
       <c r="G25" s="3"/>
       <c r="H25" s="3" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>16</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
     </row>
     <row r="30" spans="1:12">
       <c r="B30" s="17" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -1900,8 +1900,8 @@
   <sheetPr/>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" workbookViewId="0">
-      <selection activeCell="E53" sqref="E53"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>

--- a/User/Protocol/点表转换V1.7.xlsx
+++ b/User/Protocol/点表转换V1.7.xlsx
@@ -1900,8 +1900,8 @@
   <sheetPr/>
   <dimension ref="A1:Q50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.8230088495575" defaultRowHeight="13.5"/>
@@ -2934,8 +2934,8 @@
   <sheetPr/>
   <dimension ref="A1:J58"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="H38" sqref="H38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
